--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,41 @@
         <v>1109000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1072700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43514,6 +43514,41 @@
         <v>1072700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1351300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>1351300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>931100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>931100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>523400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>523400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2590700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>2590700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1317200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,41 @@
         <v>1317200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>608400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43724,6 +43724,41 @@
         <v>608400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1465000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>1465000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1493300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>1493300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3208800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,41 @@
         <v>3208800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3081100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,41 @@
         <v>3081100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3133400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,76 @@
         <v>3133400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2082500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3170400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,76 @@
         <v>3170400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9893800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>17600400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,41 @@
         <v>17600400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>16342300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44074,6 +44074,41 @@
         <v>16342300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5793200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44109,6 +44109,41 @@
         <v>5793200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5558800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44144,6 +44144,41 @@
         <v>5558800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8146800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44179,6 +44179,76 @@
         <v>8146800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5466700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>4344900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44249,6 +44249,41 @@
         <v>4344900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3761700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44284,6 +44284,41 @@
         <v>3761700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4333500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78234,6 +78234,41 @@
         <v>4333500</v>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>2925000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78269,6 +78269,41 @@
         <v>2925000</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2212" t="n">
+        <v>2942200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78304,6 +78304,41 @@
         <v>2942200</v>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I2213" t="n">
+        <v>2416700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78339,6 +78339,41 @@
         <v>2416700</v>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>2793600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78374,6 +78374,41 @@
         <v>2793600</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I2215" t="n">
+        <v>4405900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78409,6 +78409,41 @@
         <v>4405900</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>1704500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78444,6 +78444,41 @@
         <v>1704500</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>2027200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78479,6 +78479,41 @@
         <v>2027200</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>4321600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78514,6 +78514,41 @@
         <v>4321600</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>4326900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78549,6 +78549,41 @@
         <v>4326900</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>10160400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78584,6 +78584,41 @@
         <v>10160400</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>8010400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78619,6 +78619,41 @@
         <v>8010400</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>10365800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78654,6 +78654,41 @@
         <v>10365800</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>19812100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78689,6 +78689,41 @@
         <v>19812100</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>9919800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7029.xlsx
+++ b/data/7029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78724,6 +78724,41 @@
         <v>9919800</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>7029</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>MASTER</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>4214200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
